--- a/Hours.xlsx
+++ b/Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achen\Dropbox\code\Stability-Setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B01543D-75FD-40CD-8317-CD837E09C66A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8534E7E1-9E3E-4A38-908E-71DF2013D7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Date</t>
   </si>
@@ -53,10 +53,16 @@
     <t>Discription of Work Done</t>
   </si>
   <si>
-    <t>turned python code into object oriented program and started work on a gui</t>
+    <t>total time completed</t>
   </si>
   <si>
-    <t>total time completed</t>
+    <t>Mins</t>
+  </si>
+  <si>
+    <t>starting to turn python code into object oriented program and started work on a gui</t>
+  </si>
+  <si>
+    <t>continued working on oop conversion</t>
   </si>
 </sst>
 </file>
@@ -64,7 +70,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="166" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
+    <numFmt numFmtId="164" formatCode="[$-F400]h:mm:ss\ AM/PM"/>
   </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
@@ -105,7 +111,7 @@
   <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -387,10 +393,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -398,11 +404,11 @@
     <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.36328125" customWidth="1"/>
-    <col min="5" max="5" width="73.7265625" customWidth="1"/>
+    <col min="4" max="5" width="10.36328125" customWidth="1"/>
+    <col min="6" max="6" width="66.7265625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -416,13 +422,16 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>6</v>
+      </c>
+      <c r="F1" t="s">
         <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44831</v>
       </c>
@@ -436,254 +445,446 @@
         <f>TEXT(C2-B2,"h:mm")</f>
         <v>1:50</v>
       </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E2">
+        <f>D2*1440</f>
+        <v>110.00000000000001</v>
+      </c>
+      <c r="F2" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2">
+        <f>SUM(E2:E1048576)</f>
+        <v>225</v>
+      </c>
+      <c r="H2">
+        <f>G2/60</f>
+        <v>3.75</v>
+      </c>
+      <c r="I2">
+        <f>H2*12.5</f>
+        <v>46.875</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A3" s="1">
+        <v>44832</v>
+      </c>
+      <c r="B3" s="2">
+        <v>0.63888888888888895</v>
+      </c>
+      <c r="C3" s="2">
+        <v>0.71875</v>
+      </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D43" si="0">TEXT(C3-B3,"h:mm")</f>
-        <v>0:00</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.35">
+        <v>1:55</v>
+      </c>
+      <c r="E3">
+        <f t="shared" ref="E3:E43" si="1">D3*1440</f>
+        <v>114.99999999999999</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E5">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E6">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E8">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E10">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E12">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E13">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E14">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="E15">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
       </c>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E16">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D17" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
       </c>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E17">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D18" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
       </c>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E18">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D19" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
       </c>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E19">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D20" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
       </c>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E20">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D21" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
       </c>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E21">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D22" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
       </c>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E22">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D23" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
       </c>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E23">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D24" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
       </c>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E24">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D25" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
       </c>
-    </row>
-    <row r="26" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E25">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D26" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
       </c>
-    </row>
-    <row r="27" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E26">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D27" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
       </c>
-    </row>
-    <row r="28" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E27">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D28" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
       </c>
-    </row>
-    <row r="29" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E28">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D29" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
       </c>
-    </row>
-    <row r="30" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E29">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D30" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
       </c>
-    </row>
-    <row r="31" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E30">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D31" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
       </c>
-    </row>
-    <row r="32" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E31">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D32" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
       </c>
-    </row>
-    <row r="33" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E32">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D33" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
       </c>
-    </row>
-    <row r="34" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E33">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D34" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
       </c>
-    </row>
-    <row r="35" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E34">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D35" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
       </c>
-    </row>
-    <row r="36" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E35">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D36" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
       </c>
-    </row>
-    <row r="37" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E36">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D37" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
       </c>
-    </row>
-    <row r="38" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E37">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D38" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
       </c>
-    </row>
-    <row r="39" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E38">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D39" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
       </c>
-    </row>
-    <row r="40" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E39">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D40" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
       </c>
-    </row>
-    <row r="41" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E40">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D41" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
       </c>
-    </row>
-    <row r="42" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E41">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D42" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
       </c>
-    </row>
-    <row r="43" spans="4:4" x14ac:dyDescent="0.35">
+      <c r="E42">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="4:5" x14ac:dyDescent="0.35">
       <c r="D43" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
+      </c>
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Hours.xlsx
+++ b/Hours.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achen\Dropbox\code\Stability-Setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8534E7E1-9E3E-4A38-908E-71DF2013D7FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B86B7A1-03C0-421E-B901-2D97FDEB1DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>Date</t>
   </si>
@@ -62,7 +62,10 @@
     <t>starting to turn python code into object oriented program and started work on a gui</t>
   </si>
   <si>
-    <t>continued working on oop conversion</t>
+    <t>continued working on oop conversion and got gui working</t>
+  </si>
+  <si>
+    <t>worked on data visualization program (plotting data)</t>
   </si>
 </sst>
 </file>
@@ -396,13 +399,13 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="10.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10.36328125" customWidth="1"/>
     <col min="6" max="6" width="66.7265625" customWidth="1"/>
@@ -439,30 +442,30 @@
         <v>0.89583333333333337</v>
       </c>
       <c r="C2" s="2">
-        <v>0.97222222222222221</v>
+        <v>0.97916666666666663</v>
       </c>
       <c r="D2" s="3" t="str">
         <f>TEXT(C2-B2,"h:mm")</f>
-        <v>1:50</v>
+        <v>2:00</v>
       </c>
       <c r="E2">
         <f>D2*1440</f>
-        <v>110.00000000000001</v>
+        <v>120</v>
       </c>
       <c r="F2" t="s">
         <v>7</v>
       </c>
       <c r="G2">
         <f>SUM(E2:E1048576)</f>
-        <v>225</v>
+        <v>380</v>
       </c>
       <c r="H2">
         <f>G2/60</f>
-        <v>3.75</v>
+        <v>6.333333333333333</v>
       </c>
       <c r="I2">
         <f>H2*12.5</f>
-        <v>46.875</v>
+        <v>79.166666666666657</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -473,28 +476,40 @@
         <v>0.63888888888888895</v>
       </c>
       <c r="C3" s="2">
-        <v>0.71875</v>
+        <v>0.73611111111111116</v>
       </c>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D43" si="0">TEXT(C3-B3,"h:mm")</f>
-        <v>1:55</v>
+        <v>2:20</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E43" si="1">D3*1440</f>
-        <v>114.99999999999999</v>
+        <v>140</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A4" s="1">
+        <v>44837</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.875</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0:00</v>
+        <v>2:00</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>120</v>
+      </c>
+      <c r="F4" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.35">

--- a/Hours.xlsx
+++ b/Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achen\Dropbox\code\Stability-Setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B86B7A1-03C0-421E-B901-2D97FDEB1DAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30524883-A96D-4B7C-9959-96768DC641E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,7 +399,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F7" sqref="F7"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -457,15 +457,15 @@
       </c>
       <c r="G2">
         <f>SUM(E2:E1048576)</f>
-        <v>380</v>
+        <v>439</v>
       </c>
       <c r="H2">
         <f>G2/60</f>
-        <v>6.333333333333333</v>
+        <v>7.3166666666666664</v>
       </c>
       <c r="I2">
         <f>H2*12.5</f>
-        <v>79.166666666666657</v>
+        <v>91.458333333333329</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -498,15 +498,15 @@
         <v>0.875</v>
       </c>
       <c r="C4" s="2">
-        <v>0.95833333333333337</v>
+        <v>0.99930555555555556</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2:00</v>
+        <v>2:59</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>120</v>
+        <v>179</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>

--- a/Hours.xlsx
+++ b/Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achen\Dropbox\code\Stability-Setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30524883-A96D-4B7C-9959-96768DC641E6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4055F1-F8D4-445C-BE16-EEDDBC2A7A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -399,7 +399,7 @@
   <dimension ref="A1:I43"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -457,15 +457,15 @@
       </c>
       <c r="G2">
         <f>SUM(E2:E1048576)</f>
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="H2">
         <f>G2/60</f>
-        <v>7.3166666666666664</v>
+        <v>7.333333333333333</v>
       </c>
       <c r="I2">
         <f>H2*12.5</f>
-        <v>91.458333333333329</v>
+        <v>91.666666666666657</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -489,24 +489,28 @@
       <c r="F3" t="s">
         <v>8</v>
       </c>
+      <c r="G3">
+        <f>G2/60</f>
+        <v>7.333333333333333</v>
+      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44837</v>
       </c>
       <c r="B4" s="2">
-        <v>0.875</v>
+        <v>0.87430555555555556</v>
       </c>
       <c r="C4" s="2">
         <v>0.99930555555555556</v>
       </c>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2:59</v>
+        <v>3:00</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="F4" t="s">
         <v>9</v>

--- a/Hours.xlsx
+++ b/Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achen\Dropbox\code\Stability-Setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C4055F1-F8D4-445C-BE16-EEDDBC2A7A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F54C1A-FCBF-41CC-A3A3-8F42DA1E11E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -66,6 +66,15 @@
   </si>
   <si>
     <t>worked on data visualization program (plotting data)</t>
+  </si>
+  <si>
+    <t>proj earning</t>
+  </si>
+  <si>
+    <t>Hours</t>
+  </si>
+  <si>
+    <t>started soldering boards</t>
   </si>
 </sst>
 </file>
@@ -396,10 +405,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -409,6 +418,8 @@
     <col min="3" max="3" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10.36328125" customWidth="1"/>
     <col min="6" max="6" width="66.7265625" customWidth="1"/>
+    <col min="7" max="7" width="18.6328125" customWidth="1"/>
+    <col min="8" max="8" width="10.08984375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.35">
@@ -433,6 +444,12 @@
       <c r="G1" t="s">
         <v>5</v>
       </c>
+      <c r="H1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
@@ -457,15 +474,15 @@
       </c>
       <c r="G2">
         <f>SUM(E2:E1048576)</f>
-        <v>440</v>
+        <v>590</v>
       </c>
       <c r="H2">
         <f>G2/60</f>
-        <v>7.333333333333333</v>
+        <v>9.8333333333333339</v>
       </c>
       <c r="I2">
         <f>H2*12.5</f>
-        <v>91.666666666666657</v>
+        <v>122.91666666666667</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -479,51 +496,59 @@
         <v>0.73611111111111116</v>
       </c>
       <c r="D3" s="3" t="str">
-        <f t="shared" ref="D3:D43" si="0">TEXT(C3-B3,"h:mm")</f>
+        <f t="shared" ref="D3:D44" si="0">TEXT(C3-B3,"h:mm")</f>
         <v>2:20</v>
       </c>
       <c r="E3">
-        <f t="shared" ref="E3:E43" si="1">D3*1440</f>
+        <f t="shared" ref="E3:E44" si="1">D3*1440</f>
         <v>140</v>
       </c>
       <c r="F3" t="s">
         <v>8</v>
       </c>
-      <c r="G3">
-        <f>G2/60</f>
-        <v>7.333333333333333</v>
-      </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
+        <v>44834</v>
+      </c>
+      <c r="B4" s="2">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="D4" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>2:30</v>
+      </c>
+      <c r="E4">
+        <f t="shared" si="1"/>
+        <v>150</v>
+      </c>
+      <c r="F4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A5" s="1">
         <v>44837</v>
       </c>
-      <c r="B4" s="2">
+      <c r="B5" s="2">
         <v>0.87430555555555556</v>
       </c>
-      <c r="C4" s="2">
+      <c r="C5" s="2">
         <v>0.99930555555555556</v>
       </c>
-      <c r="D4" s="3" t="str">
+      <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
         <v>3:00</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <f t="shared" si="1"/>
         <v>180</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F5" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D5" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0:00</v>
-      </c>
-      <c r="E5">
-        <f t="shared" si="1"/>
-        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
@@ -902,6 +927,16 @@
         <v>0:00</v>
       </c>
       <c r="E43">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="4:5" x14ac:dyDescent="0.35">
+      <c r="D44" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>0:00</v>
+      </c>
+      <c r="E44">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>

--- a/Hours.xlsx
+++ b/Hours.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achen\Dropbox\code\Stability-Setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1F54C1A-FCBF-41CC-A3A3-8F42DA1E11E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D150F17A-3835-4BA1-8BE6-3E982349D4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>Date</t>
   </si>
@@ -75,6 +75,15 @@
   </si>
   <si>
     <t>started soldering boards</t>
+  </si>
+  <si>
+    <t>soldered board 1 for 4 pixel setup</t>
+  </si>
+  <si>
+    <t>started stability setup on the eqe table &amp; met with jp</t>
+  </si>
+  <si>
+    <t>made new plans for stability setup moving forward and finished soldering board 1</t>
   </si>
 </sst>
 </file>
@@ -408,12 +417,12 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9.453125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.453125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.26953125" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="10.36328125" customWidth="1"/>
@@ -474,15 +483,15 @@
       </c>
       <c r="G2">
         <f>SUM(E2:E1048576)</f>
-        <v>590</v>
+        <v>1185</v>
       </c>
       <c r="H2">
         <f>G2/60</f>
-        <v>9.8333333333333339</v>
+        <v>19.75</v>
       </c>
       <c r="I2">
         <f>H2*12.5</f>
-        <v>122.91666666666667</v>
+        <v>246.875</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -552,33 +561,69 @@
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A6" s="1">
+        <v>44838</v>
+      </c>
+      <c r="B6" s="2">
+        <v>0.64930555555555558</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.75</v>
+      </c>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0:00</v>
+        <v>2:25</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>144.99999999999997</v>
+      </c>
+      <c r="F6" t="s">
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A7" s="1">
+        <v>44844</v>
+      </c>
+      <c r="B7" s="2">
+        <v>0.79166666666666663</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.97916666666666663</v>
+      </c>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0:00</v>
+        <v>4:30</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>270</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A8" s="1">
+        <v>44845</v>
+      </c>
+      <c r="B8" s="2">
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.95833333333333337</v>
+      </c>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0:00</v>
+        <v>3:00</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>180</v>
+      </c>
+      <c r="F8" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.35">

--- a/Hours.xlsx
+++ b/Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achen\Dropbox\code\Stability-Setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D150F17A-3835-4BA1-8BE6-3E982349D4A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164FFDCF-F768-4CD8-BE06-B437206039BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>Date</t>
   </si>
@@ -83,7 +83,13 @@
     <t>started stability setup on the eqe table &amp; met with jp</t>
   </si>
   <si>
-    <t>made new plans for stability setup moving forward and finished soldering board 1</t>
+    <t xml:space="preserve">troubleshot board 1 </t>
+  </si>
+  <si>
+    <t>made new plans for stability setup moving forward and started soldering board 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">tested board 1 in lab, did not work, redesigned pcb </t>
   </si>
 </sst>
 </file>
@@ -417,7 +423,7 @@
   <dimension ref="A1:I44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="J18" sqref="J18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -483,15 +489,15 @@
       </c>
       <c r="G2">
         <f>SUM(E2:E1048576)</f>
-        <v>1185</v>
+        <v>1785</v>
       </c>
       <c r="H2">
         <f>G2/60</f>
-        <v>19.75</v>
+        <v>29.75</v>
       </c>
       <c r="I2">
         <f>H2*12.5</f>
-        <v>246.875</v>
+        <v>371.875</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.35">
@@ -623,27 +629,51 @@
         <v>180</v>
       </c>
       <c r="F8" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A9" s="1">
+        <v>44846</v>
+      </c>
+      <c r="B9" s="2">
+        <v>0.375</v>
+      </c>
+      <c r="C9" s="2">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="D9" s="3" t="str">
+        <f t="shared" si="0"/>
+        <v>4:00</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="1"/>
+        <v>240</v>
+      </c>
+      <c r="F9" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
-      <c r="D9" s="3" t="str">
-        <f t="shared" si="0"/>
-        <v>0:00</v>
-      </c>
-      <c r="E9">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+      <c r="A10" s="1">
+        <v>44846</v>
+      </c>
+      <c r="B10" s="2">
+        <v>0.74930555555555556</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.99930555555555556</v>
+      </c>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>0:00</v>
+        <v>6:00</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>360</v>
+      </c>
+      <c r="F10" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.35">

--- a/Hours.xlsx
+++ b/Hours.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achen\Dropbox\code\Stability-Setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{164FFDCF-F768-4CD8-BE06-B437206039BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9095C649-5C30-4A2E-8CC3-D3DDD2CB23B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>Date</t>
   </si>
@@ -66,9 +66,6 @@
   </si>
   <si>
     <t>worked on data visualization program (plotting data)</t>
-  </si>
-  <si>
-    <t>proj earning</t>
   </si>
   <si>
     <t>Hours</t>
@@ -420,10 +417,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I44"/>
+  <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -437,7 +434,7 @@
     <col min="8" max="8" width="10.08984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -460,13 +457,10 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A2" s="1">
         <v>44831</v>
       </c>
@@ -495,12 +489,8 @@
         <f>G2/60</f>
         <v>29.75</v>
       </c>
-      <c r="I2">
-        <f>H2*12.5</f>
-        <v>371.875</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.35">
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A3" s="1">
         <v>44832</v>
       </c>
@@ -522,7 +512,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A4" s="1">
         <v>44834</v>
       </c>
@@ -541,10 +531,10 @@
         <v>150</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A5" s="1">
         <v>44837</v>
       </c>
@@ -566,7 +556,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A6" s="1">
         <v>44838</v>
       </c>
@@ -585,10 +575,10 @@
         <v>144.99999999999997</v>
       </c>
       <c r="F6" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.35">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A7" s="1">
         <v>44844</v>
       </c>
@@ -607,10 +597,10 @@
         <v>270</v>
       </c>
       <c r="F7" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A8" s="1">
         <v>44845</v>
       </c>
@@ -629,10 +619,10 @@
         <v>180</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.35">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" s="1">
         <v>44846</v>
       </c>
@@ -651,10 +641,10 @@
         <v>240</v>
       </c>
       <c r="F9" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.35">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" s="1">
         <v>44846</v>
       </c>
@@ -673,10 +663,10 @@
         <v>360</v>
       </c>
       <c r="F10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D11" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
@@ -686,7 +676,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D12" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
@@ -696,7 +686,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D13" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
@@ -706,7 +696,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D14" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
@@ -716,7 +706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D15" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>
@@ -726,7 +716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
       <c r="D16" s="3" t="str">
         <f t="shared" si="0"/>
         <v>0:00</v>

--- a/Hours.xlsx
+++ b/Hours.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25831"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\achen\Dropbox\code\Stability-Setup\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9095C649-5C30-4A2E-8CC3-D3DDD2CB23B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BC786F8-37F0-4405-83AE-9C77500B7A94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="25820" windowHeight="15620" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Date</t>
   </si>
@@ -59,34 +59,7 @@
     <t>Mins</t>
   </si>
   <si>
-    <t>starting to turn python code into object oriented program and started work on a gui</t>
-  </si>
-  <si>
-    <t>continued working on oop conversion and got gui working</t>
-  </si>
-  <si>
-    <t>worked on data visualization program (plotting data)</t>
-  </si>
-  <si>
     <t>Hours</t>
-  </si>
-  <si>
-    <t>started soldering boards</t>
-  </si>
-  <si>
-    <t>soldered board 1 for 4 pixel setup</t>
-  </si>
-  <si>
-    <t>started stability setup on the eqe table &amp; met with jp</t>
-  </si>
-  <si>
-    <t xml:space="preserve">troubleshot board 1 </t>
-  </si>
-  <si>
-    <t>made new plans for stability setup moving forward and started soldering board 1</t>
-  </si>
-  <si>
-    <t xml:space="preserve">tested board 1 in lab, did not work, redesigned pcb </t>
   </si>
 </sst>
 </file>
@@ -420,7 +393,7 @@
   <dimension ref="A1:H44"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -457,213 +430,114 @@
         <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A2" s="1">
-        <v>44831</v>
-      </c>
-      <c r="B2" s="2">
-        <v>0.89583333333333337</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.97916666666666663</v>
-      </c>
+      <c r="A2" s="1"/>
       <c r="D2" s="3" t="str">
         <f>TEXT(C2-B2,"h:mm")</f>
-        <v>2:00</v>
+        <v>0:00</v>
       </c>
       <c r="E2">
         <f>D2*1440</f>
-        <v>120</v>
-      </c>
-      <c r="F2" t="s">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="G2">
         <f>SUM(E2:E1048576)</f>
-        <v>1785</v>
+        <v>0</v>
       </c>
       <c r="H2">
         <f>G2/60</f>
-        <v>29.75</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A3" s="1">
-        <v>44832</v>
-      </c>
-      <c r="B3" s="2">
-        <v>0.63888888888888895</v>
-      </c>
-      <c r="C3" s="2">
-        <v>0.73611111111111116</v>
-      </c>
+      <c r="A3" s="1"/>
       <c r="D3" s="3" t="str">
         <f t="shared" ref="D3:D44" si="0">TEXT(C3-B3,"h:mm")</f>
-        <v>2:20</v>
+        <v>0:00</v>
       </c>
       <c r="E3">
         <f t="shared" ref="E3:E44" si="1">D3*1440</f>
-        <v>140</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A4" s="1">
-        <v>44834</v>
-      </c>
-      <c r="B4" s="2">
-        <v>0.58333333333333337</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.6875</v>
-      </c>
+      <c r="A4" s="1"/>
       <c r="D4" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2:30</v>
+        <v>0:00</v>
       </c>
       <c r="E4">
         <f t="shared" si="1"/>
-        <v>150</v>
-      </c>
-      <c r="F4" t="s">
-        <v>11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A5" s="1">
-        <v>44837</v>
-      </c>
-      <c r="B5" s="2">
-        <v>0.87430555555555556</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.99930555555555556</v>
-      </c>
+      <c r="A5" s="1"/>
       <c r="D5" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>3:00</v>
+        <v>0:00</v>
       </c>
       <c r="E5">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="F5" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="1">
-        <v>44838</v>
-      </c>
-      <c r="B6" s="2">
-        <v>0.64930555555555558</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.75</v>
-      </c>
+      <c r="A6" s="1"/>
       <c r="D6" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>2:25</v>
+        <v>0:00</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>144.99999999999997</v>
-      </c>
-      <c r="F6" t="s">
-        <v>13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="1">
-        <v>44844</v>
-      </c>
-      <c r="B7" s="2">
-        <v>0.79166666666666663</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.97916666666666663</v>
-      </c>
+      <c r="A7" s="1"/>
       <c r="D7" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>4:30</v>
+        <v>0:00</v>
       </c>
       <c r="E7">
         <f t="shared" si="1"/>
-        <v>270</v>
-      </c>
-      <c r="F7" t="s">
-        <v>12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A8" s="1">
-        <v>44845</v>
-      </c>
-      <c r="B8" s="2">
-        <v>0.83333333333333337</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.95833333333333337</v>
-      </c>
+      <c r="A8" s="1"/>
       <c r="D8" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>3:00</v>
+        <v>0:00</v>
       </c>
       <c r="E8">
         <f t="shared" si="1"/>
-        <v>180</v>
-      </c>
-      <c r="F8" t="s">
-        <v>15</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A9" s="1">
-        <v>44846</v>
-      </c>
-      <c r="B9" s="2">
-        <v>0.375</v>
-      </c>
-      <c r="C9" s="2">
-        <v>0.54166666666666663</v>
-      </c>
+      <c r="A9" s="1"/>
       <c r="D9" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>4:00</v>
+        <v>0:00</v>
       </c>
       <c r="E9">
         <f t="shared" si="1"/>
-        <v>240</v>
-      </c>
-      <c r="F9" t="s">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A10" s="1">
-        <v>44846</v>
-      </c>
-      <c r="B10" s="2">
-        <v>0.74930555555555556</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.99930555555555556</v>
-      </c>
+      <c r="A10" s="1"/>
       <c r="D10" s="3" t="str">
         <f t="shared" si="0"/>
-        <v>6:00</v>
+        <v>0:00</v>
       </c>
       <c r="E10">
         <f t="shared" si="1"/>
-        <v>360</v>
-      </c>
-      <c r="F10" t="s">
-        <v>16</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
